--- a/stimuli.xlsx
+++ b/stimuli.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/abhilashakumar/first-jspsych-exp/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bowdoin-my.sharepoint.com/personal/ehaugen_bowdoin_edu/Documents/Desktop/Cognitive/first-jspsych-experiment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{0F11F1AA-B606-984E-9256-227C29A5546E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73A62444-FDEE-DF4D-94FC-13BA6C314788}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" activeTab="3" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="12580" windowHeight="16100" activeTab="3" xr2:uid="{5EADE905-632C-A04D-8302-0650934DE955}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -2057,10 +2057,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8F7AE2-45CB-5144-B993-E6D0AB0BEE80}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2069,7 +2069,7 @@
     <col min="2" max="2" width="14.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>83</v>
       </c>
@@ -2102,8 +2102,12 @@
       <c r="E2">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="e">
+        <f>CONCATENATE("'" + B2 + "'" + ",")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>84</v>
       </c>
@@ -2120,7 +2124,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>85</v>
       </c>
@@ -2137,7 +2141,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>86</v>
       </c>
@@ -2154,7 +2158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>87</v>
       </c>
@@ -2171,7 +2175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>88</v>
       </c>
@@ -2188,7 +2192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>89</v>
       </c>
@@ -2205,7 +2209,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -2222,7 +2226,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>91</v>
       </c>
@@ -2239,7 +2243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>92</v>
       </c>
@@ -2256,7 +2260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>93</v>
       </c>
@@ -2273,7 +2277,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -2290,7 +2294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -2307,7 +2311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>96</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>97</v>
       </c>
